--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.983183</v>
+        <v>0.4713456666666667</v>
       </c>
       <c r="H2">
-        <v>17.949549</v>
+        <v>1.414037</v>
       </c>
       <c r="I2">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="J2">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.160895333333333</v>
+        <v>0.4059903333333333</v>
       </c>
       <c r="N2">
-        <v>3.482686</v>
+        <v>1.217971</v>
       </c>
       <c r="O2">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="P2">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="Q2">
-        <v>6.945849223179335</v>
+        <v>0.1913617843252222</v>
       </c>
       <c r="R2">
-        <v>62.51264300861401</v>
+        <v>1.722256058927</v>
       </c>
       <c r="S2">
-        <v>0.005696498292117795</v>
+        <v>0.0004397857154553154</v>
       </c>
       <c r="T2">
-        <v>0.005696498292117795</v>
+        <v>0.0004397857154553154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.983183</v>
+        <v>0.4713456666666667</v>
       </c>
       <c r="H3">
-        <v>17.949549</v>
+        <v>1.414037</v>
       </c>
       <c r="I3">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="J3">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.201759</v>
       </c>
       <c r="O3">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="P3">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="Q3">
-        <v>8.379964339632334</v>
+        <v>0.6601602990092222</v>
       </c>
       <c r="R3">
-        <v>75.41967905669101</v>
+        <v>5.941442691083</v>
       </c>
       <c r="S3">
-        <v>0.006872658909643468</v>
+        <v>0.001517173715947104</v>
       </c>
       <c r="T3">
-        <v>0.006872658909643468</v>
+        <v>0.001517173715947104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.983183</v>
+        <v>0.4713456666666667</v>
       </c>
       <c r="H4">
-        <v>17.949549</v>
+        <v>1.414037</v>
       </c>
       <c r="I4">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="J4">
-        <v>0.03484570698140468</v>
+        <v>0.003417883648355422</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.539761333333334</v>
+        <v>1.348659333333333</v>
       </c>
       <c r="N4">
-        <v>13.619284</v>
+        <v>4.045978</v>
       </c>
       <c r="O4">
-        <v>0.6392910837346834</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="P4">
-        <v>0.6392910837346832</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="Q4">
-        <v>27.16222283365734</v>
+        <v>0.6356847325762222</v>
       </c>
       <c r="R4">
-        <v>244.460005502916</v>
+        <v>5.721162593186</v>
       </c>
       <c r="S4">
-        <v>0.02227654977964342</v>
+        <v>0.001460924216953003</v>
       </c>
       <c r="T4">
-        <v>0.02227654977964341</v>
+        <v>0.001460924216953003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>279.890941</v>
       </c>
       <c r="I5">
-        <v>0.543356143200903</v>
+        <v>0.6765273260648147</v>
       </c>
       <c r="J5">
-        <v>0.5433561432009029</v>
+        <v>0.6765273260648146</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.160895333333333</v>
+        <v>0.4059903333333333</v>
       </c>
       <c r="N5">
-        <v>3.482686</v>
+        <v>1.217971</v>
       </c>
       <c r="O5">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="P5">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="Q5">
-        <v>108.3080290830585</v>
+        <v>37.87767214452344</v>
       </c>
       <c r="R5">
-        <v>974.772261747526</v>
+        <v>340.899049300711</v>
       </c>
       <c r="S5">
-        <v>0.08882664781080252</v>
+        <v>0.08705008266201414</v>
       </c>
       <c r="T5">
-        <v>0.0888266478108025</v>
+        <v>0.08705008266201412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>279.890941</v>
       </c>
       <c r="I6">
-        <v>0.543356143200903</v>
+        <v>0.6765273260648147</v>
       </c>
       <c r="J6">
-        <v>0.5433561432009029</v>
+        <v>0.6765273260648146</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.201759</v>
       </c>
       <c r="O6">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="P6">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="Q6">
         <v>130.6704755961354</v>
@@ -818,10 +818,10 @@
         <v>1176.034280365219</v>
       </c>
       <c r="S6">
-        <v>0.1071667577492974</v>
+        <v>0.3003055641520708</v>
       </c>
       <c r="T6">
-        <v>0.1071667577492974</v>
+        <v>0.3003055641520708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>279.890941</v>
       </c>
       <c r="I7">
-        <v>0.543356143200903</v>
+        <v>0.6765273260648147</v>
       </c>
       <c r="J7">
-        <v>0.5433561432009029</v>
+        <v>0.6765273260648146</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.539761333333334</v>
+        <v>1.348659333333333</v>
       </c>
       <c r="N7">
-        <v>13.619284</v>
+        <v>4.045978</v>
       </c>
       <c r="O7">
-        <v>0.6392910837346834</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="P7">
-        <v>0.6392910837346832</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="Q7">
-        <v>423.5460238340272</v>
+        <v>125.8258432983664</v>
       </c>
       <c r="R7">
-        <v>3811.914214506244</v>
+        <v>1132.432589685298</v>
       </c>
       <c r="S7">
-        <v>0.3473627376408031</v>
+        <v>0.2891716792507298</v>
       </c>
       <c r="T7">
-        <v>0.3473627376408029</v>
+        <v>0.2891716792507297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.424862</v>
+        <v>44.13738266666667</v>
       </c>
       <c r="H8">
-        <v>217.274586</v>
+        <v>132.412148</v>
       </c>
       <c r="I8">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="J8">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.160895333333333</v>
+        <v>0.4059903333333333</v>
       </c>
       <c r="N8">
-        <v>3.482686</v>
+        <v>1.217971</v>
       </c>
       <c r="O8">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="P8">
-        <v>0.1634777648551575</v>
+        <v>0.1286719387498537</v>
       </c>
       <c r="Q8">
-        <v>84.07768431311068</v>
+        <v>17.91935070130089</v>
       </c>
       <c r="R8">
-        <v>756.699158817996</v>
+        <v>161.274156311708</v>
       </c>
       <c r="S8">
-        <v>0.06895461875223723</v>
+        <v>0.04118207037238425</v>
       </c>
       <c r="T8">
-        <v>0.06895461875223721</v>
+        <v>0.04118207037238425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.424862</v>
+        <v>44.13738266666667</v>
       </c>
       <c r="H9">
-        <v>217.274586</v>
+        <v>132.412148</v>
       </c>
       <c r="I9">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="J9">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.201759</v>
       </c>
       <c r="O9">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="P9">
-        <v>0.1972311514101592</v>
+        <v>0.4438927336444353</v>
       </c>
       <c r="Q9">
-        <v>101.4372719107527</v>
+        <v>61.81821495203689</v>
       </c>
       <c r="R9">
-        <v>912.935447196774</v>
+        <v>556.363934568332</v>
       </c>
       <c r="S9">
-        <v>0.08319173475121831</v>
+        <v>0.1420699957764174</v>
       </c>
       <c r="T9">
-        <v>0.08319173475121831</v>
+        <v>0.1420699957764174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>72.424862</v>
+        <v>44.13738266666667</v>
       </c>
       <c r="H10">
-        <v>217.274586</v>
+        <v>132.412148</v>
       </c>
       <c r="I10">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="J10">
-        <v>0.4217981498176924</v>
+        <v>0.3200547902868299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.539761333333334</v>
+        <v>1.348659333333333</v>
       </c>
       <c r="N10">
-        <v>13.619284</v>
+        <v>4.045978</v>
       </c>
       <c r="O10">
-        <v>0.6392910837346834</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="P10">
-        <v>0.6392910837346832</v>
+        <v>0.4274353276057111</v>
       </c>
       <c r="Q10">
-        <v>328.7915880796027</v>
+        <v>59.52629308230488</v>
       </c>
       <c r="R10">
-        <v>2959.124292716424</v>
+        <v>535.736637740744</v>
       </c>
       <c r="S10">
-        <v>0.2696517963142369</v>
+        <v>0.1368027241380283</v>
       </c>
       <c r="T10">
-        <v>0.2696517963142369</v>
+        <v>0.1368027241380283</v>
       </c>
     </row>
   </sheetData>
